--- a/AluminiConnect/acc.xlsx
+++ b/AluminiConnect/acc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t xml:space="preserve">roll_no</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">last_name</t>
   </si>
   <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
     <t xml:space="preserve">sex</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t xml:space="preserve">Tarkas</t>
   </si>
   <si>
+    <t xml:space="preserve">2016049@iiitdmj.ac.in</t>
+  </si>
+  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
@@ -64,22 +70,37 @@
     <t xml:space="preserve">Namit</t>
   </si>
   <si>
+    <t xml:space="preserve">2016178@iiitdmj.ac.in</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSE</t>
   </si>
   <si>
     <t xml:space="preserve">Tushar</t>
   </si>
   <si>
+    <t xml:space="preserve">2016280@iiitdmj.ac.in</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mudit</t>
   </si>
   <si>
+    <t xml:space="preserve">Joshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016162@iiitdmj.ac.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuddi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016100@iiitdmj.ac.in</t>
+  </si>
+  <si>
     <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fuddi</t>
   </si>
 </sst>
 </file>
@@ -90,7 +111,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -111,6 +132,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,8 +183,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -166,12 +198,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -181,15 +213,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.45"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -217,144 +253,169 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>2016049</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>36021</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>2020</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2016178</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>36022</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>36022</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="0" t="n">
         <v>2019</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>2016280</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>36023</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>2016182</v>
+        <v>2016162</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>36024</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="0" t="n">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>2016100</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>36025</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="G6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <v>2020</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="2016049@iiitdmj.ac.in"/>
+    <hyperlink ref="D3" r:id="rId2" display="2016178@iiitdmj.ac.in"/>
+    <hyperlink ref="D4" r:id="rId3" display="2016280@iiitdmj.ac.in"/>
+    <hyperlink ref="D5" r:id="rId4" display="2016162@iiitdmj.ac.in"/>
+    <hyperlink ref="D6" r:id="rId5" display="2016100@iiitdmj.ac.in"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>